--- a/rfp_qna_participant.xlsx
+++ b/rfp_qna_participant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q2usja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q2usja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="5736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>matthew_edgel@fanniemae.com</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Karmacharya, Rajeev(DirStrategicSourc&amp;CategoryMgmt)</t>
+  </si>
+  <si>
+    <t>Bahr, Stephanie(VP for Procurement)</t>
+  </si>
+  <si>
+    <t>Rubino, Glenn(VP Risk &amp;Corp Systems Tech)</t>
+  </si>
+  <si>
+    <t>George, James x</t>
   </si>
 </sst>
 </file>
@@ -200,18 +218,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -229,14 +276,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E11"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Email" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Title"/>
-    <tableColumn id="4" name="Division"/>
-    <tableColumn id="5" name="Manager"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="A1:G11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Email" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Title" dataDxfId="5"/>
+    <tableColumn id="4" name="Division" dataDxfId="4"/>
+    <tableColumn id="5" name="Manager" dataDxfId="3"/>
+    <tableColumn id="8" name="Director" dataDxfId="2"/>
+    <tableColumn id="7" name="VP" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,203 +554,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
